--- a/ConceptMap-R5-ExplanationOfBenefit-elements-for-R4-ExplanationOfBenefit.xlsx
+++ b/ConceptMap-R5-ExplanationOfBenefit-elements-for-R4-ExplanationOfBenefit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8556915-06:00</t>
+    <t>2026-02-17T14:42:27.2514752-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1113,18 +1113,6 @@
     <t>ExplanationOfBenefit.item.detail.reviewOutcome</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.reviewOutcome.decision</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.reviewOutcome.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.reviewOutcome.preAuthRef</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.reviewOutcome.preAuthPeriod</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.item.detail.adjudication</t>
   </si>
   <si>
@@ -1140,36 +1128,15 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.subDetail</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.adjudication.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.item.detail.subDetail.sequence</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.subDetail.sequence</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.adjudication.amount</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.item.detail.subDetail.traceNumber</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.adjudication.quantity</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.item.detail.subDetail.revenue</t>
   </si>
   <si>
@@ -1263,12 +1230,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.reviewOutcome.decision</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.reviewOutcome.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.itemSequence</t>
   </si>
   <si>
@@ -1278,9 +1239,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.itemSequence</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.reviewOutcome.preAuthRef</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.detailSequence</t>
   </si>
   <si>
@@ -1290,9 +1248,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detailSequence</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.reviewOutcome.preAuthPeriod</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.subDetailSequence</t>
   </si>
   <si>
@@ -1353,45 +1308,24 @@
     <t>ExplanationOfBenefit.addItem.patientPaid</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.subDetail.adjudication.category</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.quantity</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.quantity</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.subDetail.adjudication.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.unitPrice</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.unitPrice</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.item.detail.subDetail.adjudication.amount</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.factor</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.factor</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication.quantity</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.tax</t>
   </si>
   <si>
@@ -1494,51 +1428,18 @@
     <t>ExplanationOfBenefit.addItem.detail.reviewOutcome</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.reviewOutcome.decision</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.reviewOutcome.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.reviewOutcome.preAuthRef</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.reviewOutcome.preAuthPeriod</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.detail.adjudication</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.adjudication</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.adjudication.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.detail.subDetail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.subDetail</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.adjudication.quantity</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.addItem.detail.subDetail.traceNumber</t>
   </si>
   <si>
@@ -1605,24 +1506,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.subDetail.adjudication</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.reviewOutcome.decision</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.reviewOutcome.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.reviewOutcome.preAuthRef</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.adjudication</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.reviewOutcome.preAuthPeriod</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.total</t>
   </si>
   <si>
@@ -1638,24 +1527,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.total.category</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.adjudication.category</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.total.amount</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.total.amount</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.adjudication.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.payment</t>
   </si>
   <si>
@@ -1665,15 +1542,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.payment</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.adjudication.quantity</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.payment.type</t>
   </si>
   <si>
@@ -1830,9 +1698,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.benefitBalance.network</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.reviewOutcome.decision</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.benefitBalance.unit</t>
   </si>
   <si>
@@ -1842,9 +1707,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.benefitBalance.unit</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.reviewOutcome.reason</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.benefitBalance.term</t>
   </si>
   <si>
@@ -1854,9 +1716,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.benefitBalance.term</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.reviewOutcome.preAuthRef</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.benefitBalance.financial</t>
   </si>
   <si>
@@ -1866,9 +1725,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.benefitBalance.financial</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.reviewOutcome.preAuthPeriod</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.benefitBalance.financial.type</t>
   </si>
   <si>
@@ -1891,48 +1747,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.benefitBalance.financial.used[x]</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.subDetail.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.subDetail.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.addItem.detail.subDetail.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExplanationOfBenefit#ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.quantity</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3974,1963 +3788,1391 @@
         <v>366</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>287</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>298</v>
+        <v>412</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>423</v>
+        <v>240</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>287</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="E213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>187</v>
+        <v>500</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="E214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="E215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="E216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="E219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>263</v>
+        <v>524</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="E224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>268</v>
+        <v>527</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="E225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>271</v>
+        <v>530</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="E226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>275</v>
+        <v>533</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="E227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="E228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="E230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>293</v>
+        <v>542</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="E231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>296</v>
+        <v>545</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="E233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>313</v>
+        <v>550</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="E234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>316</v>
+        <v>553</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>323</v>
+        <v>556</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>140</v>
+        <v>559</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>472</v>
+        <v>560</v>
       </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>187</v>
+        <v>562</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
-        <v>472</v>
+        <v>563</v>
       </c>
       <c r="E238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>145</v>
+        <v>565</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="E239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>323</v>
+        <v>568</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>321</v>
+        <v>57</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
-        <v>472</v>
+        <v>571</v>
       </c>
       <c r="E241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="E242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>175</v>
+        <v>576</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="E243" s="2"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B244" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C244" s="2"/>
-      <c r="D244" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C245" s="2"/>
-      <c r="D245" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B246" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C246" s="2"/>
-      <c r="D246" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B247" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="C247" s="2"/>
-      <c r="D247" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B248" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C248" s="2"/>
-      <c r="D248" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B249" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C249" s="2"/>
-      <c r="D249" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B250" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C250" s="2"/>
-      <c r="D250" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B251" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B252" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C252" s="2"/>
-      <c r="D252" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B253" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C253" s="2"/>
-      <c r="D253" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B254" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C254" s="2"/>
-      <c r="D254" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B255" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C255" s="2"/>
-      <c r="D255" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B256" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C256" s="2"/>
-      <c r="D256" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B257" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C257" s="2"/>
-      <c r="D257" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B258" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C258" s="2"/>
-      <c r="D258" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B259" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C259" s="2"/>
-      <c r="D259" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B260" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C260" s="2"/>
-      <c r="D260" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B261" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C261" s="2"/>
-      <c r="D261" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B262" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C262" s="2"/>
-      <c r="D262" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B263" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B264" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C264" s="2"/>
-      <c r="D264" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B265" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C265" s="2"/>
-      <c r="D265" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B266" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C266" s="2"/>
-      <c r="D266" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B267" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B268" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C268" s="2"/>
-      <c r="D268" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B269" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C269" s="2"/>
-      <c r="D269" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B270" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C270" s="2"/>
-      <c r="D270" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B271" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C271" s="2"/>
-      <c r="D271" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B272" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B273" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B274" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C274" s="2"/>
-      <c r="D274" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B275" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C275" s="2"/>
-      <c r="D275" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B276" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C276" s="2"/>
-      <c r="D276" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B277" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C277" s="2"/>
-      <c r="D277" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B278" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B279" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C279" s="2"/>
-      <c r="D279" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B280" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="E280" s="2"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B281" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B282" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C282" s="2"/>
-      <c r="D282" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B283" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B284" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C285" s="2"/>
-      <c r="D285" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="E285" s="2"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B286" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C286" s="2"/>
-      <c r="D286" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="E286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B287" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C287" s="2"/>
-      <c r="D287" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="E287" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
